--- a/project/test.xlsx
+++ b/project/test.xlsx
@@ -201,7 +201,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="10800000" cy="5400000"/>
+    <ext cx="16200000" cy="5400000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>901291</v>
+        <v>97049</v>
       </c>
     </row>
     <row r="2">
@@ -529,7 +529,7 @@
         <v>0.01</v>
       </c>
       <c r="B2" t="n">
-        <v>49609</v>
+        <v>969</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         <v>0.02</v>
       </c>
       <c r="B3" t="n">
-        <v>15922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>0.03</v>
       </c>
       <c r="B4" t="n">
-        <v>9085</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         <v>0.04</v>
       </c>
       <c r="B5" t="n">
-        <v>4998</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -561,7 +561,7 @@
         <v>0.05</v>
       </c>
       <c r="B6" t="n">
-        <v>2965</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         <v>0.06</v>
       </c>
       <c r="B7" t="n">
-        <v>1979</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8">
@@ -577,7 +577,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>2070</v>
+        <v>798</v>
       </c>
     </row>
     <row r="9">
@@ -585,7 +585,7 @@
         <v>0.08</v>
       </c>
       <c r="B9" t="n">
-        <v>947</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -593,7 +593,7 @@
         <v>0.09</v>
       </c>
       <c r="B10" t="n">
-        <v>2026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -601,7 +601,7 @@
         <v>0.1</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -609,7 +609,7 @@
         <v>0.11</v>
       </c>
       <c r="B12" t="n">
-        <v>1060</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -617,7 +617,7 @@
         <v>0.12</v>
       </c>
       <c r="B13" t="n">
-        <v>967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -625,7 +625,7 @@
         <v>0.13</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -633,7 +633,7 @@
         <v>0.14</v>
       </c>
       <c r="B15" t="n">
-        <v>1046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -641,7 +641,7 @@
         <v>0.15</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -649,7 +649,7 @@
         <v>0.16</v>
       </c>
       <c r="B17" t="n">
-        <v>1072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -665,7 +665,7 @@
         <v>0.18</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -673,7 +673,7 @@
         <v>0.19</v>
       </c>
       <c r="B20" t="n">
-        <v>947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -681,7 +681,7 @@
         <v>0.2</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -697,7 +697,7 @@
         <v>0.22</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -705,7 +705,7 @@
         <v>0.23</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -713,7 +713,7 @@
         <v>0.24</v>
       </c>
       <c r="B25" t="n">
-        <v>993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -721,7 +721,7 @@
         <v>0.25</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -761,7 +761,7 @@
         <v>0.3</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -769,7 +769,7 @@
         <v>0.31</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -777,7 +777,7 @@
         <v>0.32</v>
       </c>
       <c r="B33" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -785,7 +785,7 @@
         <v>0.33</v>
       </c>
       <c r="B34" t="n">
-        <v>951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -793,7 +793,7 @@
         <v>0.34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -801,7 +801,7 @@
         <v>0.35</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -865,7 +865,7 @@
         <v>0.43</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -873,7 +873,7 @@
         <v>0.44</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -889,7 +889,7 @@
         <v>0.46</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>0.47</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -905,7 +905,7 @@
         <v>0.48</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -913,7 +913,7 @@
         <v>0.49</v>
       </c>
       <c r="B50" t="n">
-        <v>982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -929,7 +929,7 @@
         <v>0.51</v>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -969,7 +969,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -977,7 +977,7 @@
         <v>0.57</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1009,7 +1009,7 @@
         <v>0.61</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -1033,7 +1033,7 @@
         <v>0.64</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -1057,7 +1057,7 @@
         <v>0.67</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -1073,7 +1073,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1081,7 +1081,7 @@
         <v>0.7</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72">
@@ -1097,7 +1097,7 @@
         <v>0.72</v>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
@@ -1113,7 +1113,7 @@
         <v>0.74</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -1121,7 +1121,7 @@
         <v>0.75</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1129,7 +1129,7 @@
         <v>0.76</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -1137,7 +1137,7 @@
         <v>0.77</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -1145,7 +1145,7 @@
         <v>0.78</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -1153,7 +1153,7 @@
         <v>0.79</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -1161,7 +1161,7 @@
         <v>0.8</v>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -1169,7 +1169,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83">
@@ -1177,7 +1177,7 @@
         <v>0.82</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84">
@@ -1185,7 +1185,7 @@
         <v>0.83</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -1193,7 +1193,7 @@
         <v>0.84</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
@@ -1201,7 +1201,7 @@
         <v>0.85</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
@@ -1209,7 +1209,7 @@
         <v>0.86</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
@@ -1217,7 +1217,7 @@
         <v>0.87</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89">
@@ -1225,7 +1225,7 @@
         <v>0.88</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
@@ -1233,7 +1233,7 @@
         <v>0.89</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
@@ -1241,7 +1241,7 @@
         <v>0.9</v>
       </c>
       <c r="B91" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92">
@@ -1249,7 +1249,7 @@
         <v>0.91</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -1257,7 +1257,7 @@
         <v>0.92</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94">
@@ -1265,7 +1265,7 @@
         <v>0.93</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95">
@@ -1273,7 +1273,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="96">
@@ -1281,7 +1281,7 @@
         <v>0.95</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97">
@@ -1289,7 +1289,7 @@
         <v>0.96</v>
       </c>
       <c r="B97" t="n">
-        <v>5</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98">
@@ -1297,7 +1297,7 @@
         <v>0.97</v>
       </c>
       <c r="B98" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1305,7 +1305,7 @@
         <v>0.98</v>
       </c>
       <c r="B99" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1313,7 +1313,7 @@
         <v>0.99</v>
       </c>
       <c r="B100" t="n">
-        <v>917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">

--- a/project/test.xlsx
+++ b/project/test.xlsx
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>901291</v>
+        <v>99901</v>
       </c>
     </row>
     <row r="2">
@@ -529,7 +529,7 @@
         <v>0.01</v>
       </c>
       <c r="B2" t="n">
-        <v>49609</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         <v>0.02</v>
       </c>
       <c r="B3" t="n">
-        <v>15922</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>0.03</v>
       </c>
       <c r="B4" t="n">
-        <v>9085</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -553,7 +553,7 @@
         <v>0.04</v>
       </c>
       <c r="B5" t="n">
-        <v>4998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -561,7 +561,7 @@
         <v>0.05</v>
       </c>
       <c r="B6" t="n">
-        <v>2965</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -569,7 +569,7 @@
         <v>0.06</v>
       </c>
       <c r="B7" t="n">
-        <v>1979</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -577,7 +577,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>2070</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -585,7 +585,7 @@
         <v>0.08</v>
       </c>
       <c r="B9" t="n">
-        <v>947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -593,7 +593,7 @@
         <v>0.09</v>
       </c>
       <c r="B10" t="n">
-        <v>2026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -601,7 +601,7 @@
         <v>0.1</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -609,7 +609,7 @@
         <v>0.11</v>
       </c>
       <c r="B12" t="n">
-        <v>1060</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -617,7 +617,7 @@
         <v>0.12</v>
       </c>
       <c r="B13" t="n">
-        <v>967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -625,7 +625,7 @@
         <v>0.13</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -633,7 +633,7 @@
         <v>0.14</v>
       </c>
       <c r="B15" t="n">
-        <v>1046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -641,7 +641,7 @@
         <v>0.15</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -649,7 +649,7 @@
         <v>0.16</v>
       </c>
       <c r="B17" t="n">
-        <v>1072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -665,7 +665,7 @@
         <v>0.18</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -673,7 +673,7 @@
         <v>0.19</v>
       </c>
       <c r="B20" t="n">
-        <v>947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -681,7 +681,7 @@
         <v>0.2</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -705,7 +705,7 @@
         <v>0.23</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -713,7 +713,7 @@
         <v>0.24</v>
       </c>
       <c r="B25" t="n">
-        <v>993</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -721,7 +721,7 @@
         <v>0.25</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -761,7 +761,7 @@
         <v>0.3</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -769,7 +769,7 @@
         <v>0.31</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -777,7 +777,7 @@
         <v>0.32</v>
       </c>
       <c r="B33" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -785,7 +785,7 @@
         <v>0.33</v>
       </c>
       <c r="B34" t="n">
-        <v>951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>0.46</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -897,7 +897,7 @@
         <v>0.47</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -905,7 +905,7 @@
         <v>0.48</v>
       </c>
       <c r="B49" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -913,7 +913,7 @@
         <v>0.49</v>
       </c>
       <c r="B50" t="n">
-        <v>982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -921,7 +921,7 @@
         <v>0.5</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1121,7 +1121,7 @@
         <v>0.75</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1185,7 +1185,7 @@
         <v>0.83</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1201,7 +1201,7 @@
         <v>0.85</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1217,7 +1217,7 @@
         <v>0.87</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1225,7 +1225,7 @@
         <v>0.88</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1241,7 +1241,7 @@
         <v>0.9</v>
       </c>
       <c r="B91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1249,7 +1249,7 @@
         <v>0.91</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1257,7 +1257,7 @@
         <v>0.92</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1265,7 +1265,7 @@
         <v>0.93</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1273,7 +1273,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1281,7 +1281,7 @@
         <v>0.95</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1289,7 +1289,7 @@
         <v>0.96</v>
       </c>
       <c r="B97" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1297,7 +1297,7 @@
         <v>0.97</v>
       </c>
       <c r="B98" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1305,7 +1305,7 @@
         <v>0.98</v>
       </c>
       <c r="B99" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1313,7 +1313,7 @@
         <v>0.99</v>
       </c>
       <c r="B100" t="n">
-        <v>917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
